--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20101_20181/AVERAGE_10_6_qoq_forecast_error_table_first_eval_20101_20181.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20101_20181/AVERAGE_10_6_qoq_forecast_error_table_first_eval_20101_20181.xlsx
@@ -441,22 +441,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.1386565018392948</v>
+        <v>-0.07723759565368317</v>
       </c>
       <c r="C2">
-        <v>0.4282261336609104</v>
+        <v>0.4832654843349234</v>
       </c>
       <c r="D2">
-        <v>0.4435429893220211</v>
+        <v>0.6010327821225036</v>
       </c>
       <c r="E2">
-        <v>0.6659902321521097</v>
+        <v>0.7752630406013843</v>
       </c>
       <c r="F2">
-        <v>0.6614962444633202</v>
+        <v>0.7951470505110364</v>
       </c>
       <c r="G2">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,22 +464,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.1474514513152613</v>
+        <v>-0.1634178345924594</v>
       </c>
       <c r="C3">
-        <v>0.4340051200576053</v>
+        <v>0.4021168907514989</v>
       </c>
       <c r="D3">
-        <v>0.4468613261262869</v>
+        <v>0.3222171730403485</v>
       </c>
       <c r="E3">
-        <v>0.6684768703001526</v>
+        <v>0.5676417647075914</v>
       </c>
       <c r="F3">
-        <v>0.6621211193919044</v>
+        <v>0.5603403170405029</v>
       </c>
       <c r="G3">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,22 +487,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.07530195645802025</v>
+        <v>0.05374059237319629</v>
       </c>
       <c r="C4">
-        <v>0.3739803664015443</v>
+        <v>0.3345380109633904</v>
       </c>
       <c r="D4">
-        <v>0.2728207733607239</v>
+        <v>0.2170335242739501</v>
       </c>
       <c r="E4">
-        <v>0.5223224802368015</v>
+        <v>0.4658685697425295</v>
       </c>
       <c r="F4">
-        <v>0.5248798323060629</v>
+        <v>0.4770005923142664</v>
       </c>
       <c r="G4">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,22 +510,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.05467490652132366</v>
+        <v>-0.08511671287891998</v>
       </c>
       <c r="C5">
-        <v>0.3707689952768616</v>
+        <v>0.4691271817735259</v>
       </c>
       <c r="D5">
-        <v>0.2853670663823626</v>
+        <v>0.3831976152389424</v>
       </c>
       <c r="E5">
-        <v>0.5341975911424186</v>
+        <v>0.6190295754153774</v>
       </c>
       <c r="F5">
-        <v>0.5396313785908382</v>
+        <v>0.6320204173556079</v>
       </c>
       <c r="G5">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,22 +533,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.05647962058452061</v>
+        <v>0.03752173280238997</v>
       </c>
       <c r="C6">
-        <v>0.3598525668884381</v>
+        <v>0.2833056108482621</v>
       </c>
       <c r="D6">
-        <v>0.2693727683139923</v>
+        <v>0.1825500481312487</v>
       </c>
       <c r="E6">
-        <v>0.519011337365565</v>
+        <v>0.4272587601574117</v>
       </c>
       <c r="F6">
-        <v>0.5239284625993947</v>
+        <v>0.4387066823971649</v>
       </c>
       <c r="G6">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.008786534654578427</v>
+        <v>-0.01647890660520619</v>
       </c>
       <c r="C7">
-        <v>0.3126961930705031</v>
+        <v>0.3457700441494083</v>
       </c>
       <c r="D7">
-        <v>0.1595285295453358</v>
+        <v>0.1913100875655797</v>
       </c>
       <c r="E7">
-        <v>0.3994102271416392</v>
+        <v>0.4373900862680585</v>
       </c>
       <c r="F7">
-        <v>0.4055048462135382</v>
+        <v>0.4505312880675924</v>
       </c>
       <c r="G7">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.007724020652917482</v>
+        <v>0.068939684521933</v>
       </c>
       <c r="C8">
-        <v>0.3200724225078272</v>
+        <v>0.330394643547626</v>
       </c>
       <c r="D8">
-        <v>0.154592178224236</v>
+        <v>0.1582419886828843</v>
       </c>
       <c r="E8">
-        <v>0.3931821183932911</v>
+        <v>0.3977964161262445</v>
       </c>
       <c r="F8">
-        <v>0.3992012761856185</v>
+        <v>0.4038346076888495</v>
       </c>
       <c r="G8">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20101_20181/AVERAGE_10_6_qoq_forecast_error_table_first_eval_20101_20181.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20101_20181/AVERAGE_10_6_qoq_forecast_error_table_first_eval_20101_20181.xlsx
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01647890660520619</v>
+        <v>0.05059694089399255</v>
       </c>
       <c r="C7">
-        <v>0.3457700441494083</v>
+        <v>0.3754832313001323</v>
       </c>
       <c r="D7">
-        <v>0.1913100875655797</v>
+        <v>0.2169190185971216</v>
       </c>
       <c r="E7">
-        <v>0.4373900862680585</v>
+        <v>0.4657456586991677</v>
       </c>
       <c r="F7">
-        <v>0.4505312880675924</v>
+        <v>0.4910741687265304</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.068939684521933</v>
+        <v>0.1028329319255051</v>
       </c>
       <c r="C8">
-        <v>0.330394643547626</v>
+        <v>0.3256379015226427</v>
       </c>
       <c r="D8">
-        <v>0.1582419886828843</v>
+        <v>0.1450293133628471</v>
       </c>
       <c r="E8">
-        <v>0.3977964161262445</v>
+        <v>0.3808271436791856</v>
       </c>
       <c r="F8">
-        <v>0.4038346076888495</v>
+        <v>0.3889235646740345</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
